--- a/模板-考勤.xlsx
+++ b/模板-考勤.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZZ\kaoqin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F479F-B60A-4343-AA26-0926E1F520CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFE376-098B-496A-8158-4948951041FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,11 @@
     <sheet name="运维考勤说明" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
   <si>
     <t>序号</t>
   </si>
@@ -495,6 +484,10 @@
   </si>
   <si>
     <t xml:space="preserve">      山东宜美科节能服务有限责任公司考勤表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：公司出勤：√、 星期：○、 放假：※  请假：假 、病假：病假、 加班：+、 年假：年、 迟到：迟、 调休：调休、调休半天：√/调、 请假半天：√/假、 梁宝寺：梁 、郓：郓城、济：济宁、白：白庄、曲：曲阜、京：北京、博：博兴、聊：聊城、蒙：内蒙、枣：枣庄、新：新驿、贵：贵州</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -936,6 +929,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,9 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,7 +1279,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="44.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1331,146 +1324,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="51"/>
     </row>
     <row r="2" spans="1:47" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="55"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="7">
         <v>26</v>
       </c>
@@ -1561,116 +1554,116 @@
       <c r="AR3" s="7">
         <v>25</v>
       </c>
-      <c r="AS3" s="53"/>
+      <c r="AS3" s="49"/>
     </row>
     <row r="4" spans="1:47" s="22" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AR4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS4" s="53"/>
+      <c r="AS4" s="49"/>
     </row>
     <row r="5" spans="1:47" s="23" customFormat="1" ht="84.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -3884,101 +3877,101 @@
       <c r="AT42" s="31"/>
     </row>
     <row r="43" spans="1:47" s="25" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="49"/>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="49"/>
+      <c r="A43" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="50"/>
+      <c r="AM43" s="50"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
       <c r="AT43" s="31"/>
     </row>
     <row r="44" spans="1:47" s="25" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="49"/>
-      <c r="AK44" s="49"/>
-      <c r="AL44" s="49"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="50"/>
+      <c r="AL44" s="50"/>
+      <c r="AM44" s="50"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
+      <c r="AQ44" s="50"/>
+      <c r="AR44" s="50"/>
+      <c r="AS44" s="50"/>
       <c r="AT44" s="31"/>
     </row>
     <row r="45" spans="1:47" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,8 +4269,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="A43:AS44"/>
     <mergeCell ref="A1:AS1"/>
@@ -4295,6 +4286,8 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.98402777777777795" right="0.196527777777778" top="0.31458333333333299" bottom="0.156944444444444" header="0.39305555555555599" footer="0.27500000000000002"/>
@@ -4930,53 +4923,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
     </row>
     <row r="2" spans="1:46" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -5865,6 +5858,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="A9:AS10"/>
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="N2:AR2"/>
@@ -5879,10 +5876,6 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="AS2:AS4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.156944444444444" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
